--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -56,11 +56,22 @@
   </si>
   <si>
     <r>
-      <t>Hải xem lại bài sau</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">Hưng xem lại các bài sau: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hình học:</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -68,73 +79,307 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Bài 2.3b:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hải chưa đưa đủ dẫn chứng để Aox = Box</t>
-    </r>
-  </si>
-  <si>
-    <t>Long làm bài tốt.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linh xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con cần ghi rõ là vì sao có được phép tính kia, không thể chỉ ghi phép tính không như thế.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con không đánh dấu góc, và hình như đánh dấu cũng k khớp với đề bài.</t>
-    </r>
-  </si>
-  <si>
-    <t>Con chưa nộp bài</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bái 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">B1 và BAD là hai góc trong cùng phía, không phải đồng vi. DI và BCD là hai góc trong cùng phía, không phải ke bù. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A1 và A2 không kế bù với nhau 
+Thiếu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Đại số: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Hưng làm tốt đại số, làm thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nữa nhé!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nam xem lại các bài sau: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hình học:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 2.3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con làm nhằm bài, là 2.3 của phần ôn tập 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A và B là 2 góc trong cùng phía (không phải đồng vi) </t>
+    </r>
+  </si>
+  <si>
+    <t>Trường Giang</t>
+  </si>
+  <si>
+    <t>Con chưa nộp bài.</t>
+  </si>
+  <si>
+    <t>Con chưa nộp bài đại số.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linh xem lại các bài sau: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 1a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con nhằm dấu 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1d:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con cần trình bày rõ các bước để tìm ra được y, sau đó tim x, z.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đại Số:
+Tất cả các bài Long nộp đều làm tốt (Con xem lại </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, thiếu x = 0). 
+Long cần bổ sung thêm các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1e, Bài 4</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -213,13 +458,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,73 +765,81 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>6.75</v>
+      </c>
       <c r="C8" s="5">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -598,19 +851,29 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <v>7</v>
-      </c>
+      <c r="B10" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -211,80 +211,6 @@
       </rPr>
       <t xml:space="preserve"> nữa nhé!</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nam xem lại các bài sau: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hình học:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 2.3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con làm nhằm bài, là 2.3 của phần ôn tập 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A và B là 2 góc trong cùng phía (không phải đồng vi) </t>
-    </r>
-  </si>
-  <si>
-    <t>Trường Giang</t>
   </si>
   <si>
     <t>Con chưa nộp bài.</t>
@@ -380,6 +306,41 @@
       </rPr>
       <t>Bài 1e, Bài 4</t>
     </r>
+  </si>
+  <si>
+    <t>BÀI 9. ÔN TẬP TÍNH CHẤT CỦA DÃY TỈ SỐ BẰNG NHAU
+BÀI 10. CĂN BẬC HAI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nam xem lại các bài sau: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đại số:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Hải Nam cần xem lại trình bày ở tất cả các bài. Do bài trình bày của con chưa được cẩn thận nên dẫn đến nhiều lỗi trong bài làm.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhật Nam</t>
   </si>
 </sst>
 </file>
@@ -750,7 +711,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +726,9 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
@@ -806,12 +769,14 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>5.5</v>
+      </c>
       <c r="C6" s="5">
         <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -839,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -863,17 +828,17 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -51,12 +51,54 @@
     <t>Hoàng Hải</t>
   </si>
   <si>
-    <t>BÀI 7. ĐỊNH LÍ
-ÔN TẬP CHƯƠNG I</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hưng xem lại các bài sau: 
+    <t>Nhật Nam</t>
+  </si>
+  <si>
+    <t>ÔN TẬP CHƯƠNG I</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hình học</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Long làm bài tốt. Con xem lại </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> phần Trắc Nghiệm
 </t>
     </r>
     <r>
@@ -68,7 +110,293 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hình học:</t>
+      <t xml:space="preserve">Đại số
+- Bài 1b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con chưa hoàn thiện bài.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Bài 4b, c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con nhầm dấu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Bài 4d: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con thiếu 1 TH: y = 6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Con chưa mộp bài Hình
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Đại số
+- Bài 1b, 2b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con nhầm dấu
+- Hải làm thêm phần thiếu của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hình Học</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Trắc nghiệm: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2 3 7 8 9 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi đánh dấu góc thì chỉ số góc phải </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nằm thấp hơn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, phải </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đầy đủ mũ ở trên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. -&gt; Bài 1
+BTVN của con chụp lóa, khó đọc, trước khi chụp con check lại flash trên máy nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Đại số:
+- Bài 2b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con nhầm dấu
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 2c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con tính nhầm: 2,5 . 4 = 10
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bài 3c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con tính nhầm
+- Con xem lại</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bài 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cần sửa lại các cách trình bày. Buối tới con ở lại 15p sau giờ nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hình học</t>
     </r>
     <r>
       <rPr>
@@ -90,17 +418,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bái 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">B1 và BAD là hai góc trong cùng phía, không phải đồng vi. DI và BCD là hai góc trong cùng phía, không phải ke bù. 
+      <t xml:space="preserve">Bài 2a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AMC = 40 không phải 30.
 </t>
     </r>
     <r>
@@ -112,29 +440,97 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bài 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A1 và A2 không kế bù với nhau 
-Thiếu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2.3</t>
+      <t xml:space="preserve">Bài 3a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con quên chưa làm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Đại số
+Bài 3b 4c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con nhầm dấu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4d: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con nhầm tính chất của dãy tỷ số rồi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hình học</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Trắc nghiệm: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2</t>
     </r>
     <r>
       <rPr>
@@ -155,7 +551,184 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bài 4 </t>
+      <t>Bài 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi đánh dấu góc thì chỉ số góc phải </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nằm thấp hơn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, phải </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đầy đủ mũ ở trên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. -&gt; Bài 1
+Góc được cấu tạo 3 chữ (góc ABC) hoặc 1 chữ (góc A), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KHÔNG có góc 2 chữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; Bài 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Đại số
+Bài 2a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con chép sai đề
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3d: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con thiếu 1 TH: -2/5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con trình bày lỗi, xem lai bài
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4d:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Không có tính chất mà con đang sử dụng trong bài.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con chưa làm phần trắc nghiệm, Bài 4 và Bài 5</t>
     </r>
     <r>
       <rPr>
@@ -177,50 +750,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Đại số: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Hưng làm tốt đại số, làm thêm </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nữa nhé!</t>
-    </r>
-  </si>
-  <si>
-    <t>Con chưa nộp bài.</t>
-  </si>
-  <si>
-    <t>Con chưa nộp bài đại số.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linh xem lại các bài sau: 
+      <t xml:space="preserve">Bài 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con đọc sai đề, đề bài yêu cầu tính BAD (Không phải ABD)
 </t>
     </r>
     <r>
@@ -232,115 +772,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bài 1a: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con nhằm dấu 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1d:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con cần trình bày rõ các bước để tìm ra được y, sau đó tim x, z.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Đại Số:
-Tất cả các bài Long nộp đều làm tốt (Con xem lại </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, thiếu x = 0). 
-Long cần bổ sung thêm các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1e, Bài 4</t>
-    </r>
-  </si>
-  <si>
-    <t>BÀI 9. ÔN TẬP TÍNH CHẤT CỦA DÃY TỈ SỐ BẰNG NHAU
-BÀI 10. CĂN BẬC HAI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nam xem lại các bài sau: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Đại số:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Hải Nam cần xem lại trình bày ở tất cả các bài. Do bài trình bày của con chưa được cẩn thận nên dẫn đến nhiều lỗi trong bài làm.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nhật Nam</t>
+      <t xml:space="preserve">Bài 7: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài này thầy không giao, BTVN chỉ có 5 bài từ 1 -&gt; 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -710,34 +1164,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
     <col min="2" max="3" width="9.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -765,80 +1219,84 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5">
-        <v>5.5</v>
+        <v>7.75</v>
       </c>
       <c r="C6" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5">
-        <v>8.5</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>6.75</v>
+        <v>9.5</v>
       </c>
       <c r="C8" s="5">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
-        <v>8</v>
-      </c>
+      <c r="B9" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>6.25</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>8.25</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7.75</v>
+      </c>
       <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8.75</v>
+      </c>
+      <c r="C11" s="5">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -129,6 +129,33 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Góc A và góc D là chưa đủ để Cm // Dn. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhật Nam làm bài tốt.
+Lưu ý: Khi ghi góc cần 3 đỉnh (VD: góc ABC), hoặc ghi 1 đỉnh (có thể kèm chỉ số bé hơn). Nhưng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không có</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> góc nào có 2 đỉnh cả.</t>
     </r>
   </si>
 </sst>
@@ -500,7 +527,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,13 +629,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -156,6 +156,58 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> góc nào có 2 đỉnh cả.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nhân mở ngoặc quên k đổi dấu với dấu trừ ở trước.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đại số: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1d:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con cần rút gọn phân số mỗi khi làm, để tranh nhầm lẫn
+Hình học:
+Con nộp thiếu phần trắc nghiệm</t>
     </r>
   </si>
 </sst>
@@ -526,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,21 +645,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>8.75</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -133,6 +133,80 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nhân mở ngoặc quên k đổi dấu với dấu trừ ở trước.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đại số: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1d:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con cần rút gọn phân số mỗi khi làm, để tranh nhầm lẫn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con mở ngoặc nhưng quên đổi dấu
+Hình học:
+Con nộp thiếu phần trắc nghiệm</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Nhật Nam làm bài tốt.
 Lưu ý: Khi ghi góc cần 3 đỉnh (VD: góc ABC), hoặc ghi 1 đỉnh (có thể kèm chỉ số bé hơn). Nhưng </t>
     </r>
@@ -155,35 +229,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> góc nào có 2 đỉnh cả.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 4c: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nhân mở ngoặc quên k đổi dấu với dấu trừ ở trước.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Đại số: 
+      <t xml:space="preserve"> góc nào có 2 đỉnh cả.
+Đại số:
 </t>
     </r>
     <r>
@@ -195,19 +242,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 1d:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con cần rút gọn phân số mỗi khi làm, để tranh nhầm lẫn
-Hình học:
-Con nộp thiếu phần trắc nghiệm</t>
+      <t xml:space="preserve">Bài 1c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con nhầm: -248 - 752 = -1000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2b c, 3a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con nhầm dấu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Con làm thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bài 1.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nhé</t>
     </r>
   </si>
 </sst>
@@ -579,7 +693,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,19 +759,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5">
+        <v>9</v>
+      </c>
       <c r="C7" s="5">
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -666,16 +782,20 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -689,16 +809,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <v>6.75</v>
+      </c>
       <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -54,11 +54,11 @@
     <t>Nhật Nam</t>
   </si>
   <si>
-    <t>ÔN TẬP CHƯƠNG I</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hải Nam trình bày tiến bộ, </t>
+    <t>BÀI 1. TỔNG BA GÓC CỦA MỘT TAM GIÁC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hải làm thêm bài </t>
     </r>
     <r>
       <rPr>
@@ -69,26 +69,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 1.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> con lưu tý cần trình bày rõ tại sao AM = AN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linh xem lại các bài sau:
+      <t xml:space="preserve">Bài 3.2
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lưu ý khi vẽ hình cần có ký hiệu hình (tham khảo bài trả của thầy nhé).
+2 Bài hình đều làm tốt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Long xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -96,21 +98,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 1a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Đề bài chưa cho a // b nên con chưa thể sử dụng cặp góc đồng vị bằng nhau được.
+      <t>Bài 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BD là đường vuông góc, không phải phân giác =&gt; Sai gần hết bài 1
+Con làm thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhật Nam làm thêm bài </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3.2
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 Bài hình đều làm tốt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hưng xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -118,20 +164,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 3b:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Góc A và góc D là chưa đủ để Cm // Dn. </t>
-    </r>
-  </si>
-  <si>
+      <t>Bài 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> E1 và D1 không sole trong với nhau, CHD không bằng 180 nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bài làm của Linh tốt, trình bày đẹp
+Con làm thêm </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -141,23 +191,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bài 4c: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nhân mở ngoặc quên k đổi dấu với dấu trừ ở trước.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Đại số: 
-</t>
+      <t>Bài 1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
     </r>
     <r>
       <rPr>
@@ -168,161 +212,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 1d:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con cần rút gọn phân số mỗi khi làm, để tranh nhầm lẫn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4c:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con mở ngoặc nhưng quên đổi dấu
-Hình học:
-Con nộp thiếu phần trắc nghiệm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nhật Nam làm bài tốt.
-Lưu ý: Khi ghi góc cần 3 đỉnh (VD: góc ABC), hoặc ghi 1 đỉnh (có thể kèm chỉ số bé hơn). Nhưng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>không có</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> góc nào có 2 đỉnh cả.
-Đại số:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 1c: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con nhầm: -248 - 752 = -1000
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2b c, 3a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con nhầm dấu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Con làm thêm </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> và</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bài 1.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nhé</t>
-    </r>
+      <t>Bài 3.2</t>
+    </r>
+  </si>
+  <si>
+    <t>Con chưa nộp bài.</t>
   </si>
 </sst>
 </file>
@@ -693,7 +587,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,9 +602,7 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
@@ -752,40 +644,36 @@
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
         <v>9</v>
-      </c>
-      <c r="C7" s="5">
-        <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <v>8.75</v>
-      </c>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -794,33 +682,31 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>6.75</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -86,11 +86,75 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Hưng xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> E1 và D1 không sole trong với nhau, CHD không bằng 180 nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nam xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con chưa làm câu b, tính toán sai: 180 - 70 - 90 = 20 (không phải 30)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Long xem lại các bài sau:
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con làm thêm </t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -98,84 +162,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BD là đường vuông góc, không phải phân giác =&gt; Sai gần hết bài 1
-Con làm thêm </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Bài 3.2</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Nhật Nam làm thêm bài </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 3.2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2 Bài hình đều làm tốt.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hưng xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> E1 và D1 không sole trong với nhau, CHD không bằng 180 nhé.</t>
-    </r>
+    <t>Bài Hình làm tốt</t>
   </si>
   <si>
     <r>
@@ -212,11 +203,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 3.2</t>
-    </r>
-  </si>
-  <si>
-    <t>Con chưa nộp bài.</t>
+      <t>Bài 3.2a</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -587,7 +575,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,9 +632,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -658,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -667,10 +657,10 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,10 +681,10 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,10 +693,10 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -54,39 +54,17 @@
     <t>Nhật Nam</t>
   </si>
   <si>
-    <t>BÀI 1. TỔNG BA GÓC CỦA MỘT TAM GIÁC</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hải làm thêm bài </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 3.2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lưu ý khi vẽ hình cần có ký hiệu hình (tham khảo bài trả của thầy nhé).
-2 Bài hình đều làm tốt.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hưng xem lại các bài sau:
+    <t>BÀI 1,2. ĐẠI LƯỢNG TỈ LỆ THUẬN – MỘT SỐ BÀI TOÁN VỀ ĐẠI LƯỢNG TỈ LỆ THUẬN</t>
+  </si>
+  <si>
+    <t>Long làm bài tốt</t>
+  </si>
+  <si>
+    <t>Thảo Vy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vy xem lại các bài sau:
 </t>
     </r>
     <r>
@@ -108,12 +86,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> E1 và D1 không sole trong với nhau, CHD không bằng 180 nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nam xem lại các bài sau:
+      <t xml:space="preserve"> Con nhầm tỷ lệ thức</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hải xem lại các bài sau:
 </t>
     </r>
     <r>
@@ -125,7 +103,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 1:</t>
+      <t xml:space="preserve">Bài 2: </t>
     </r>
     <r>
       <rPr>
@@ -135,23 +113,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Con chưa làm câu b, tính toán sai: 180 - 70 - 90 = 20 (không phải 30)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Long xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con làm thêm </t>
+      <t xml:space="preserve">Con nhầm 1 chút: 7 . 5 = 35 (không phải 45)
+Hải làm thêm </t>
     </r>
     <r>
       <rPr>
@@ -162,27 +125,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 3.2</t>
-    </r>
-  </si>
-  <si>
-    <t>Bài Hình làm tốt</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bài làm của Linh tốt, trình bày đẹp
-Con làm thêm </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1b</t>
+      <t>Bài 4</t>
     </r>
     <r>
       <rPr>
@@ -192,19 +135,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> và </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3.2a</t>
-    </r>
+      <t xml:space="preserve"> nhé</t>
+    </r>
+  </si>
+  <si>
+    <t>Nam làm tốt tất cả các bài, Bài 2 con trình bày tắt quá nên bị trừ 1 điểm trình bày.</t>
+  </si>
+  <si>
+    <t>Linh làm tốt 4 bài đầu tiên
+Con cố gắng làm thêm Bài 5 nhé.</t>
+  </si>
+  <si>
+    <t>Hưng làm bài tốt, nhưng trình bày chưa được đẹp lắm.</t>
+  </si>
+  <si>
+    <t>Con chưa nộp bài.</t>
   </si>
 </sst>
 </file>
@@ -572,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +535,9 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
@@ -598,9 +545,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
@@ -632,57 +577,55 @@
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>8</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>9</v>
-      </c>
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
-        <v>8</v>
-      </c>
+      <c r="B8" s="5">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
-        <v>8</v>
-      </c>
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <v>7</v>
-      </c>
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
@@ -691,12 +634,24 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -149,7 +149,43 @@
     <t>Hưng làm bài tốt, nhưng trình bày chưa được đẹp lắm.</t>
   </si>
   <si>
-    <t>Con chưa nộp bài.</t>
+    <r>
+      <t xml:space="preserve">Nam xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con cần đồng nhất đơn vị, con bị trừ 1/2 điểm.
+Con làm thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -517,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +612,9 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>7.5</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
         <v>19</v>
@@ -642,15 +680,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -54,17 +54,11 @@
     <t>Nhật Nam</t>
   </si>
   <si>
-    <t>BÀI 1,2. ĐẠI LƯỢNG TỈ LỆ THUẬN – MỘT SỐ BÀI TOÁN VỀ ĐẠI LƯỢNG TỈ LỆ THUẬN</t>
-  </si>
-  <si>
-    <t>Long làm bài tốt</t>
-  </si>
-  <si>
     <t>Thảo Vy</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Vy xem lại các bài sau:
+      <t xml:space="preserve">Long xem lại các bài sau:
 </t>
     </r>
     <r>
@@ -76,7 +70,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 1:</t>
+      <t>Bài 2:</t>
     </r>
     <r>
       <rPr>
@@ -86,71 +80,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Con nhầm tỷ lệ thức</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hải xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con nhầm 1 chút: 7 . 5 = 35 (không phải 45)
-Hải làm thêm </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nhé</t>
-    </r>
-  </si>
-  <si>
-    <t>Nam làm tốt tất cả các bài, Bài 2 con trình bày tắt quá nên bị trừ 1 điểm trình bày.</t>
-  </si>
-  <si>
-    <t>Linh làm tốt 4 bài đầu tiên
-Con cố gắng làm thêm Bài 5 nhé.</t>
-  </si>
-  <si>
-    <t>Hưng làm bài tốt, nhưng trình bày chưa được đẹp lắm.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nam xem lại các bài sau:
+      <t xml:space="preserve"> 3 ý  con đều chứng mình cùng 1 cặp tam giác bằng nhau, không cần thiết.
 </t>
     </r>
     <r>
@@ -172,19 +102,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Con cần đồng nhất đơn vị, con bị trừ 1/2 điểm.
-Con làm thêm </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4</t>
+      <t xml:space="preserve"> Con chứng minh chưa hết, cần chứng minh hoàn thiện.</t>
     </r>
   </si>
 </sst>
@@ -556,7 +474,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,9 +489,7 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
@@ -612,34 +528,26 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
-        <v>7.5</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5">
-        <v>10</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>9.5</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
@@ -648,49 +556,33 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
-        <v>7</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <v>8</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>9</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -103,6 +103,106 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Con chứng minh chưa hết, cần chứng minh hoàn thiện.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài làm cẩu thả, thiếu cẩn thận. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nam xem lại toàn bộ phần chứng minh 2 tam giác bằng nhau (trên lớp), và trình bày lại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nam xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Làm ẩu, cẩu thả. Quên chưa làm câu b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linh xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 180 - 80 - 45 = 55 (không phải 50)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Câu a: Con chưa được học chứng mình với tam giác vuông, Câu b: Chưa chặt chẽ.</t>
     </r>
   </si>
 </sst>
@@ -524,13 +624,17 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -538,7 +642,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -560,21 +664,29 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="5">
+        <v>7.25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -55,155 +55,6 @@
   </si>
   <si>
     <t>Thảo Vy</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Long xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 3 ý  con đều chứng mình cùng 1 cặp tam giác bằng nhau, không cần thiết.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 5:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con chứng minh chưa hết, cần chứng minh hoàn thiện.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài làm cẩu thả, thiếu cẩn thận. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Nam xem lại toàn bộ phần chứng minh 2 tam giác bằng nhau (trên lớp), và trình bày lại.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nam xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Làm ẩu, cẩu thả. Quên chưa làm câu b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linh xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 180 - 80 - 45 = 55 (không phải 50)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Câu a: Con chưa được học chứng mình với tam giác vuông, Câu b: Chưa chặt chẽ.</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -574,7 +425,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +444,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -629,14 +480,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -649,14 +496,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5">
-        <v>9.5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -664,29 +507,21 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <v>7.25</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -55,6 +55,272 @@
   </si>
   <si>
     <t>Thảo Vy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Long xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>240 : 40 = 6 (Không phải 60).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nam trình bày tốt hơn, cố gắng làm thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nam xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con nhầm qua bài toán tỷ lệ thuận rồi.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Con giải sai phần cuối cùng (Phần giải t1). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linh xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Con quên chưa làm.
+Con làm thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hưng xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 39 là tổng số máy, không phải là hệ số tỷ lệ.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Khi xét tỷ lệ, con đã quên k đổi 40p = 2/3 giờ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vy cố gắng làm thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xem lại các bài sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">240 : 40 = 6 (Không phải 60).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con nhầm qua bài toán tỷ lệ thuận rồi.</t>
+    </r>
+  </si>
+  <si>
+    <t>Con chưa nộp bài</t>
+  </si>
+  <si>
+    <t>BÀI 3,4. ĐẠI LƯỢNG TỈ LỆ NGHỊCH – MỘT SỐ BÀI TOÁN VỀ ĐẠI LƯỢNG TỈ LỆ NGHỊCH</t>
   </si>
 </sst>
 </file>
@@ -422,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +706,9 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
@@ -479,57 +747,89 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5">
+        <v>8.5</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -70,7 +70,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bài 1: </t>
+      <t xml:space="preserve">Bài 2: </t>
     </r>
     <r>
       <rPr>
@@ -80,12 +80,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>240 : 40 = 6 (Không phải 60).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nam trình bày tốt hơn, cố gắng làm thêm </t>
+      <t>Khi 2 tam giác bằng nhau con k cần thiết phải suy ra hết cạnh và hết góc.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hưng xem lại các bài sau:
+Bài 3: Hưng vẽ sai hình.</t>
+  </si>
+  <si>
+    <t>Vy xem lại các bài sau:
+Bài 1: Hình vẽ chưa đánh dấu góc, trong bài làm thì vẫn sử dụng. Ký hiệu góc trong bài làm sai.
+Bài 2a: Sai đề
+Bài 3: Tam giác ADB và tam giác ACE không thể băng nhau.</t>
+  </si>
+  <si>
+    <t>Con nộp nhầm bài</t>
+  </si>
+  <si>
+    <t>Con chưa nộp bài.</t>
+  </si>
+  <si>
+    <t>BÀI 4. TRƯỜNG HỢP BẰNG NHAU THỨ HAI CỦA TAM GIÁC CẠNH – GÓC – CẠNH (c.g.c)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nam xem lại các bài sau:
+</t>
     </r>
     <r>
       <rPr>
@@ -96,7 +116,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bài 5</t>
+      <t>Bài 1d:</t>
     </r>
     <r>
       <rPr>
@@ -106,12 +126,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nam xem lại các bài sau:
+      <t xml:space="preserve"> Con làm rờm, trình bày hơi rối xem xét lại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linh xem lại các bài sau:
 </t>
     </r>
     <r>
@@ -123,7 +143,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bài 3: </t>
+      <t xml:space="preserve">Bài 1d: </t>
     </r>
     <r>
       <rPr>
@@ -133,194 +153,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Con nhầm qua bài toán tỷ lệ thuận rồi.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Con giải sai phần cuối cùng (Phần giải t1). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linh xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con quên chưa làm.
-Con làm thêm </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hưng xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 39 là tổng số máy, không phải là hệ số tỷ lệ.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Khi xét tỷ lệ, con đã quên k đổi 40p = 2/3 giờ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vy cố gắng làm thêm </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">240 : 40 = 6 (Không phải 60).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Con nhầm qua bài toán tỷ lệ thuận rồi.</t>
-    </r>
-  </si>
-  <si>
-    <t>Con chưa nộp bài</t>
-  </si>
-  <si>
-    <t>BÀI 3,4. ĐẠI LƯỢNG TỈ LỆ NGHỊCH – MỘT SỐ BÀI TOÁN VỀ ĐẠI LƯỢNG TỈ LỆ NGHỊCH</t>
+      <t>Con trình bày chưa đủ, con trình bày thêm nhé.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -690,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -743,74 +577,72 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
-        <v>8</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>9</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,16 +651,16 @@
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="C13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <v>6</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Lop7/2021 - 2022/BTVN/Diem.xlsx
+++ b/Lop7/2021 - 2022/BTVN/Diem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Tấn Hưng</t>
   </si>
@@ -57,111 +57,21 @@
     <t>Thảo Vy</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Long xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Khi 2 tam giác bằng nhau con k cần thiết phải suy ra hết cạnh và hết góc.</t>
-    </r>
-  </si>
-  <si>
-    <t>Hưng xem lại các bài sau:
-Bài 3: Hưng vẽ sai hình.</t>
-  </si>
-  <si>
-    <t>Vy xem lại các bài sau:
-Bài 1: Hình vẽ chưa đánh dấu góc, trong bài làm thì vẫn sử dụng. Ký hiệu góc trong bài làm sai.
-Bài 2a: Sai đề
-Bài 3: Tam giác ADB và tam giác ACE không thể băng nhau.</t>
-  </si>
-  <si>
-    <t>Con nộp nhầm bài</t>
-  </si>
-  <si>
-    <t>Con chưa nộp bài.</t>
-  </si>
-  <si>
-    <t>BÀI 4. TRƯỜNG HỢP BẰNG NHAU THỨ HAI CỦA TAM GIÁC CẠNH – GÓC – CẠNH (c.g.c)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nam xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1d:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con làm rờm, trình bày hơi rối xem xét lại.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linh xem lại các bài sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bài 1d: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Con trình bày chưa đủ, con trình bày thêm nhé.</t>
-    </r>
+    <t>Bài làm hình tốt, cần làm thêm Bài 3c, 4c.</t>
+  </si>
+  <si>
+    <t>Tuệ Minh</t>
+  </si>
+  <si>
+    <t>Thay chữ "tam giác" bằng ký hiệu tam giác.
+Vẽ hình chuẩn (trung điểm, góc vuông), vẽ ở đâu bài không vẽ ở cuối bài.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +83,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -236,11 +152,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,130 +458,122 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
